--- a/data/pca/factorExposure/factorExposure_2015-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01865416903579954</v>
+        <v>-0.01132827920632304</v>
       </c>
       <c r="C2">
-        <v>-0.0388954421989468</v>
+        <v>-0.05385534694947828</v>
       </c>
       <c r="D2">
-        <v>-0.1152841298655236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08676547108712909</v>
+      </c>
+      <c r="E2">
+        <v>0.07542958528260536</v>
+      </c>
+      <c r="F2">
+        <v>0.03498869877233246</v>
+      </c>
+      <c r="G2">
+        <v>0.1550416053950578</v>
+      </c>
+      <c r="H2">
+        <v>-0.03524193560398632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04518249877979251</v>
+        <v>-0.02035767425800391</v>
       </c>
       <c r="C4">
-        <v>-0.08045942665336529</v>
+        <v>-0.1151692938316268</v>
       </c>
       <c r="D4">
-        <v>-0.08445745259063599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.09248486511937835</v>
+      </c>
+      <c r="E4">
+        <v>0.0866278424297485</v>
+      </c>
+      <c r="F4">
+        <v>0.09242662366065714</v>
+      </c>
+      <c r="G4">
+        <v>0.005794432201439596</v>
+      </c>
+      <c r="H4">
+        <v>0.06362915794180612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02918769815996069</v>
+        <v>-0.03399115496331773</v>
       </c>
       <c r="C6">
-        <v>-0.01964146350314846</v>
+        <v>-0.03858002021329476</v>
       </c>
       <c r="D6">
-        <v>-0.09195030122281912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07419393498681601</v>
+      </c>
+      <c r="E6">
+        <v>0.1084826790346472</v>
+      </c>
+      <c r="F6">
+        <v>0.04387155460212483</v>
+      </c>
+      <c r="G6">
+        <v>-0.003749342345054892</v>
+      </c>
+      <c r="H6">
+        <v>-0.01857988936233342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003576772306894212</v>
+        <v>-0.005836752951137646</v>
       </c>
       <c r="C7">
-        <v>-0.03266332679106095</v>
+        <v>-0.04544383053046636</v>
       </c>
       <c r="D7">
-        <v>-0.07535743342287379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05524796313851623</v>
+      </c>
+      <c r="E7">
+        <v>0.09205286741173821</v>
+      </c>
+      <c r="F7">
+        <v>0.01029760717825394</v>
+      </c>
+      <c r="G7">
+        <v>-0.002667452402721986</v>
+      </c>
+      <c r="H7">
+        <v>0.02985064902778763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0004696598138623959</v>
+        <v>0.005163776816943549</v>
       </c>
       <c r="C8">
-        <v>-0.02933227326167731</v>
+        <v>-0.03739092877935107</v>
       </c>
       <c r="D8">
-        <v>-0.06589167454000899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04553504386627729</v>
+      </c>
+      <c r="E8">
+        <v>0.06646103265063659</v>
+      </c>
+      <c r="F8">
+        <v>0.05224695386396776</v>
+      </c>
+      <c r="G8">
+        <v>0.06546306173375652</v>
+      </c>
+      <c r="H8">
+        <v>0.04534459322594034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03388646206238811</v>
+        <v>-0.01420891624310293</v>
       </c>
       <c r="C9">
-        <v>-0.0697869262139403</v>
+        <v>-0.09409507732357093</v>
       </c>
       <c r="D9">
-        <v>-0.08874553479221177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07958822416027923</v>
+      </c>
+      <c r="E9">
+        <v>0.07568893097522959</v>
+      </c>
+      <c r="F9">
+        <v>0.06322804233036816</v>
+      </c>
+      <c r="G9">
+        <v>-0.001639296460737961</v>
+      </c>
+      <c r="H9">
+        <v>0.01795080556580218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1984366546165619</v>
+        <v>-0.2449055658510045</v>
       </c>
       <c r="C10">
-        <v>0.1557950849479373</v>
+        <v>0.09231650825031486</v>
       </c>
       <c r="D10">
-        <v>0.04814207326768557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009055428084581299</v>
+      </c>
+      <c r="E10">
+        <v>-0.0272365097331075</v>
+      </c>
+      <c r="F10">
+        <v>0.04022298912816172</v>
+      </c>
+      <c r="G10">
+        <v>-0.009596934748643347</v>
+      </c>
+      <c r="H10">
+        <v>0.00801819665584276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01080405762426757</v>
+        <v>-0.008992254960078324</v>
       </c>
       <c r="C11">
-        <v>-0.04311406244743846</v>
+        <v>-0.06088989967041277</v>
       </c>
       <c r="D11">
-        <v>-0.04172891103011599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02756910860336053</v>
+      </c>
+      <c r="E11">
+        <v>0.05071947231013706</v>
+      </c>
+      <c r="F11">
+        <v>-0.006454209945139715</v>
+      </c>
+      <c r="G11">
+        <v>-0.00672307987437543</v>
+      </c>
+      <c r="H11">
+        <v>0.01087887215101726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01028540239380735</v>
+        <v>-0.009560499242606652</v>
       </c>
       <c r="C12">
-        <v>-0.04522908989326834</v>
+        <v>-0.0527310611791818</v>
       </c>
       <c r="D12">
-        <v>-0.04939246808513487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03279892399835345</v>
+      </c>
+      <c r="E12">
+        <v>0.04083775069445619</v>
+      </c>
+      <c r="F12">
+        <v>-0.009890559822931622</v>
+      </c>
+      <c r="G12">
+        <v>-0.004105461946720252</v>
+      </c>
+      <c r="H12">
+        <v>-0.02089462165754761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01018088687062889</v>
+        <v>-0.004592418428698156</v>
       </c>
       <c r="C13">
-        <v>-0.03294868238552195</v>
+        <v>-0.06301932228196594</v>
       </c>
       <c r="D13">
-        <v>-0.1148539025927435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1240172972763521</v>
+      </c>
+      <c r="E13">
+        <v>0.1062765840170206</v>
+      </c>
+      <c r="F13">
+        <v>0.03199747344350013</v>
+      </c>
+      <c r="G13">
+        <v>0.05275691794083656</v>
+      </c>
+      <c r="H13">
+        <v>-0.07069774734517641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01245721083975778</v>
+        <v>-0.002033605225029904</v>
       </c>
       <c r="C14">
-        <v>-0.02046746279312809</v>
+        <v>-0.03463494558807444</v>
       </c>
       <c r="D14">
-        <v>-0.05908036251883672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05796286604461443</v>
+      </c>
+      <c r="E14">
+        <v>0.1084658887443798</v>
+      </c>
+      <c r="F14">
+        <v>0.03462935497578526</v>
+      </c>
+      <c r="G14">
+        <v>0.02609672527234811</v>
+      </c>
+      <c r="H14">
+        <v>-0.03049306679927099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003177431532618236</v>
+        <v>0.003665454472420752</v>
       </c>
       <c r="C15">
-        <v>-0.01253667482266441</v>
+        <v>-0.03101138095263106</v>
       </c>
       <c r="D15">
-        <v>-0.04632618399188985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05153955844975835</v>
+      </c>
+      <c r="E15">
+        <v>0.05446100725679124</v>
+      </c>
+      <c r="F15">
+        <v>0.009749111368264771</v>
+      </c>
+      <c r="G15">
+        <v>0.02008682054777827</v>
+      </c>
+      <c r="H15">
+        <v>0.01072028357143697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01073410031459783</v>
+        <v>-0.00857432401960356</v>
       </c>
       <c r="C16">
-        <v>-0.04163046985673018</v>
+        <v>-0.05384468954966601</v>
       </c>
       <c r="D16">
-        <v>-0.04590712481275432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0308880005229615</v>
+      </c>
+      <c r="E16">
+        <v>0.04709152728822021</v>
+      </c>
+      <c r="F16">
+        <v>-0.007537311216180276</v>
+      </c>
+      <c r="G16">
+        <v>-0.02147503364384023</v>
+      </c>
+      <c r="H16">
+        <v>-0.002251009156058405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003292602270163878</v>
+        <v>0.003990632898396058</v>
       </c>
       <c r="C19">
-        <v>-0.02358660158960805</v>
+        <v>-0.01708601888023412</v>
       </c>
       <c r="D19">
-        <v>-0.05181939598426483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02831831865275974</v>
+      </c>
+      <c r="E19">
+        <v>0.01056063642791718</v>
+      </c>
+      <c r="F19">
+        <v>0.009103519711166536</v>
+      </c>
+      <c r="G19">
+        <v>0.02779104425349055</v>
+      </c>
+      <c r="H19">
+        <v>-0.009315621339268195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0004700058493084735</v>
+        <v>-0.004553031261265625</v>
       </c>
       <c r="C20">
-        <v>-0.02958079696705744</v>
+        <v>-0.04629450170652733</v>
       </c>
       <c r="D20">
-        <v>-0.05827720756817054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.06088898092015283</v>
+      </c>
+      <c r="E20">
+        <v>0.06599055878536068</v>
+      </c>
+      <c r="F20">
+        <v>0.02256139091391341</v>
+      </c>
+      <c r="G20">
+        <v>-0.0201503106078365</v>
+      </c>
+      <c r="H20">
+        <v>0.02443316915652269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001864029930420006</v>
+        <v>-0.002079656642871816</v>
       </c>
       <c r="C21">
-        <v>-0.03526141712201299</v>
+        <v>-0.04813352089130394</v>
       </c>
       <c r="D21">
-        <v>-0.0886654247665654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08829947718015782</v>
+      </c>
+      <c r="E21">
+        <v>0.08743876607756752</v>
+      </c>
+      <c r="F21">
+        <v>0.0960388715961162</v>
+      </c>
+      <c r="G21">
+        <v>0.08347776451488174</v>
+      </c>
+      <c r="H21">
+        <v>-0.07655773597285981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003972105157662565</v>
+        <v>0.007513293854342823</v>
       </c>
       <c r="C22">
-        <v>-0.05378783016743962</v>
+        <v>-0.08404049523607773</v>
       </c>
       <c r="D22">
-        <v>-0.2000850003392016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2012484003216602</v>
+      </c>
+      <c r="E22">
+        <v>0.120631335362954</v>
+      </c>
+      <c r="F22">
+        <v>0.04932176670966296</v>
+      </c>
+      <c r="G22">
+        <v>0.2074667498381175</v>
+      </c>
+      <c r="H22">
+        <v>0.1436126067546041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004376129903860432</v>
+        <v>0.004416254410019746</v>
       </c>
       <c r="C23">
-        <v>-0.05417573601383009</v>
+        <v>-0.08618279601821825</v>
       </c>
       <c r="D23">
-        <v>-0.1992455360604137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2047217275189845</v>
+      </c>
+      <c r="E23">
+        <v>0.1181756439005787</v>
+      </c>
+      <c r="F23">
+        <v>0.05190082906715268</v>
+      </c>
+      <c r="G23">
+        <v>0.2024362348857943</v>
+      </c>
+      <c r="H23">
+        <v>0.1366570090453213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01676553658347418</v>
+        <v>-0.01004497274893215</v>
       </c>
       <c r="C24">
-        <v>-0.06284390594419183</v>
+        <v>-0.0716497364237433</v>
       </c>
       <c r="D24">
-        <v>-0.05735703177761389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02844563301057128</v>
+      </c>
+      <c r="E24">
+        <v>0.05855092794157914</v>
+      </c>
+      <c r="F24">
+        <v>-0.004005232272105608</v>
+      </c>
+      <c r="G24">
+        <v>0.002923259912257275</v>
+      </c>
+      <c r="H24">
+        <v>0.005736648348489788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01635668734708201</v>
+        <v>-0.01406857572568424</v>
       </c>
       <c r="C25">
-        <v>-0.054434161486913</v>
+        <v>-0.06567252408862773</v>
       </c>
       <c r="D25">
-        <v>-0.0445125387966113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03228938374849941</v>
+      </c>
+      <c r="E25">
+        <v>0.04127426656879626</v>
+      </c>
+      <c r="F25">
+        <v>-0.002471400389290153</v>
+      </c>
+      <c r="G25">
+        <v>-0.01157272224613302</v>
+      </c>
+      <c r="H25">
+        <v>0.002312462835803394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00595260675410059</v>
+        <v>-0.01729913514394683</v>
       </c>
       <c r="C26">
-        <v>-0.02004980494266015</v>
+        <v>-0.03316522400418193</v>
       </c>
       <c r="D26">
-        <v>-0.05090207020471825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03632755002858328</v>
+      </c>
+      <c r="E26">
+        <v>0.07560779591053822</v>
+      </c>
+      <c r="F26">
+        <v>0.04731087951958654</v>
+      </c>
+      <c r="G26">
+        <v>0.02406366035345765</v>
+      </c>
+      <c r="H26">
+        <v>-0.001873250295830574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2788516015679445</v>
+        <v>-0.3134768616091762</v>
       </c>
       <c r="C28">
-        <v>0.1683120178248018</v>
+        <v>0.09054531073132678</v>
       </c>
       <c r="D28">
-        <v>0.01026918965034342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002193596241789626</v>
+      </c>
+      <c r="E28">
+        <v>-0.05275624273686974</v>
+      </c>
+      <c r="F28">
+        <v>0.05007173525444485</v>
+      </c>
+      <c r="G28">
+        <v>0.05761694908105424</v>
+      </c>
+      <c r="H28">
+        <v>0.0362004924181836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004366778406229125</v>
+        <v>-0.001101433196864371</v>
       </c>
       <c r="C29">
-        <v>-0.02346611697648451</v>
+        <v>-0.04036510986719925</v>
       </c>
       <c r="D29">
-        <v>-0.06254266447186514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06673649479810115</v>
+      </c>
+      <c r="E29">
+        <v>0.1218590967071274</v>
+      </c>
+      <c r="F29">
+        <v>0.03850781074599172</v>
+      </c>
+      <c r="G29">
+        <v>0.01428540623306441</v>
+      </c>
+      <c r="H29">
+        <v>-0.04522093072225489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02508600398199925</v>
+        <v>-0.01649422137356707</v>
       </c>
       <c r="C30">
-        <v>-0.07564177430638484</v>
+        <v>-0.09974153621546387</v>
       </c>
       <c r="D30">
-        <v>-0.1407161500282748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09624274080776295</v>
+      </c>
+      <c r="E30">
+        <v>0.1238838341028661</v>
+      </c>
+      <c r="F30">
+        <v>0.01901717824838723</v>
+      </c>
+      <c r="G30">
+        <v>0.001571257137022688</v>
+      </c>
+      <c r="H30">
+        <v>0.02594260867237044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03231168987932563</v>
+        <v>-0.0107043725992213</v>
       </c>
       <c r="C31">
-        <v>-0.08497764101050276</v>
+        <v>-0.09562700914044679</v>
       </c>
       <c r="D31">
-        <v>-0.04763065461054086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02305553189956712</v>
+      </c>
+      <c r="E31">
+        <v>0.03164562847632913</v>
+      </c>
+      <c r="F31">
+        <v>0.01840273031675404</v>
+      </c>
+      <c r="G31">
+        <v>0.01935689310604283</v>
+      </c>
+      <c r="H31">
+        <v>0.0087981896034382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01515958017587939</v>
+        <v>-0.01340997613623355</v>
       </c>
       <c r="C32">
-        <v>-0.04312922236148248</v>
+        <v>-0.05247095644276099</v>
       </c>
       <c r="D32">
-        <v>-0.07408582480716526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07695609086035933</v>
+      </c>
+      <c r="E32">
+        <v>0.02815943595263117</v>
+      </c>
+      <c r="F32">
+        <v>0.05257612695532163</v>
+      </c>
+      <c r="G32">
+        <v>0.03859100932246688</v>
+      </c>
+      <c r="H32">
+        <v>-0.02364114169708615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005005899738347954</v>
+        <v>-0.006943425089153152</v>
       </c>
       <c r="C33">
-        <v>-0.04314498225781045</v>
+        <v>-0.06578956794041613</v>
       </c>
       <c r="D33">
-        <v>-0.09127232190828481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08541739649669174</v>
+      </c>
+      <c r="E33">
+        <v>0.09224802399637445</v>
+      </c>
+      <c r="F33">
+        <v>0.03286748034455177</v>
+      </c>
+      <c r="G33">
+        <v>0.006888369706620963</v>
+      </c>
+      <c r="H33">
+        <v>-0.003665254215731059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01258104536477301</v>
+        <v>-0.008386523027159061</v>
       </c>
       <c r="C34">
-        <v>-0.06148759704168227</v>
+        <v>-0.06235400384391344</v>
       </c>
       <c r="D34">
-        <v>-0.05677501967304233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01400275873026218</v>
+      </c>
+      <c r="E34">
+        <v>0.04253998653117733</v>
+      </c>
+      <c r="F34">
+        <v>-0.03564449480042709</v>
+      </c>
+      <c r="G34">
+        <v>0.002623217491961196</v>
+      </c>
+      <c r="H34">
+        <v>-0.008181012566296964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002563392375351293</v>
+        <v>-0.00447520767370342</v>
       </c>
       <c r="C35">
-        <v>-0.001162940307067471</v>
+        <v>-0.01594377436073205</v>
       </c>
       <c r="D35">
-        <v>-0.001455097557253067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02796111933252127</v>
+      </c>
+      <c r="E35">
+        <v>0.03224256044864353</v>
+      </c>
+      <c r="F35">
+        <v>0.02306181508267097</v>
+      </c>
+      <c r="G35">
+        <v>0.0005045258825938146</v>
+      </c>
+      <c r="H35">
+        <v>-0.01006023406638885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006283906445596006</v>
+        <v>-0.01148433746333189</v>
       </c>
       <c r="C36">
-        <v>-0.01139479721315595</v>
+        <v>-0.02560713281509207</v>
       </c>
       <c r="D36">
-        <v>-0.05091344312402186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04882051280916647</v>
+      </c>
+      <c r="E36">
+        <v>0.06920599819040438</v>
+      </c>
+      <c r="F36">
+        <v>0.04957727272521319</v>
+      </c>
+      <c r="G36">
+        <v>0.009892860344153631</v>
+      </c>
+      <c r="H36">
+        <v>-0.004474668753321117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001451712778860382</v>
+        <v>-0.007710495696776105</v>
       </c>
       <c r="C38">
-        <v>-0.0107754007519952</v>
+        <v>-0.0298066383370361</v>
       </c>
       <c r="D38">
-        <v>-0.08026942517266204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07424192087402338</v>
+      </c>
+      <c r="E38">
+        <v>0.06923942504186627</v>
+      </c>
+      <c r="F38">
+        <v>0.0125922521942322</v>
+      </c>
+      <c r="G38">
+        <v>0.02566501628411895</v>
+      </c>
+      <c r="H38">
+        <v>0.04449420402660694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0121606389718753</v>
+        <v>-0.006833814867761133</v>
       </c>
       <c r="C39">
-        <v>-0.06289244258459303</v>
+        <v>-0.08880569807095173</v>
       </c>
       <c r="D39">
-        <v>-0.09915881895044046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06115784280342041</v>
+      </c>
+      <c r="E39">
+        <v>0.1037355169521769</v>
+      </c>
+      <c r="F39">
+        <v>-0.002125001722801593</v>
+      </c>
+      <c r="G39">
+        <v>0.001766043718859315</v>
+      </c>
+      <c r="H39">
+        <v>-0.0006121291889809352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01491713090585298</v>
+        <v>-0.01358270855316931</v>
       </c>
       <c r="C40">
-        <v>-0.03064813908107427</v>
+        <v>-0.04418983656313981</v>
       </c>
       <c r="D40">
-        <v>-0.1104519198251377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06661591219758774</v>
+      </c>
+      <c r="E40">
+        <v>0.08091220357919748</v>
+      </c>
+      <c r="F40">
+        <v>-0.03104179616340734</v>
+      </c>
+      <c r="G40">
+        <v>0.07073455844055106</v>
+      </c>
+      <c r="H40">
+        <v>-0.01267304515037938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008579538095466688</v>
+        <v>-0.01724182068305609</v>
       </c>
       <c r="C41">
-        <v>-0.006924582735641043</v>
+        <v>-0.02501670780161774</v>
       </c>
       <c r="D41">
-        <v>-0.02342702102812176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03469501850243094</v>
+      </c>
+      <c r="E41">
+        <v>0.02438933839461766</v>
+      </c>
+      <c r="F41">
+        <v>0.01866457624452401</v>
+      </c>
+      <c r="G41">
+        <v>0.003383671676554872</v>
+      </c>
+      <c r="H41">
+        <v>0.006537804990916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003510757968508475</v>
+        <v>-0.008288603117065559</v>
       </c>
       <c r="C43">
-        <v>-0.003731468374388485</v>
+        <v>-0.01853670725511212</v>
       </c>
       <c r="D43">
-        <v>-0.0389167322381557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04207093985489978</v>
+      </c>
+      <c r="E43">
+        <v>0.0409801006390959</v>
+      </c>
+      <c r="F43">
+        <v>0.02328305257565048</v>
+      </c>
+      <c r="G43">
+        <v>0.001958170663808764</v>
+      </c>
+      <c r="H43">
+        <v>0.01750803339165531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01800710625114674</v>
+        <v>-0.009470500381626529</v>
       </c>
       <c r="C44">
-        <v>-0.0326083029621638</v>
+        <v>-0.05268576052552298</v>
       </c>
       <c r="D44">
-        <v>-0.08454025989316903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07591029856070169</v>
+      </c>
+      <c r="E44">
+        <v>0.09586322163032816</v>
+      </c>
+      <c r="F44">
+        <v>0.03741177052188456</v>
+      </c>
+      <c r="G44">
+        <v>0.03343588762999999</v>
+      </c>
+      <c r="H44">
+        <v>0.02357019049099009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002008667247080993</v>
+        <v>0.0004077120360856547</v>
       </c>
       <c r="C46">
-        <v>-0.03200070309107934</v>
+        <v>-0.04275743490695752</v>
       </c>
       <c r="D46">
-        <v>-0.06728998198679013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04290736103102478</v>
+      </c>
+      <c r="E46">
+        <v>0.09308057997261569</v>
+      </c>
+      <c r="F46">
+        <v>0.0379120462431072</v>
+      </c>
+      <c r="G46">
+        <v>0.02445550650764443</v>
+      </c>
+      <c r="H46">
+        <v>0.0005981788245263593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06761870401609354</v>
+        <v>-0.03170558231540552</v>
       </c>
       <c r="C47">
-        <v>-0.1138060707500203</v>
+        <v>-0.1247338773389357</v>
       </c>
       <c r="D47">
-        <v>-0.05175739761422556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01925063218702607</v>
+      </c>
+      <c r="E47">
+        <v>0.003615634685523693</v>
+      </c>
+      <c r="F47">
+        <v>-0.0006054761501582667</v>
+      </c>
+      <c r="G47">
+        <v>-0.0111796939393082</v>
+      </c>
+      <c r="H47">
+        <v>0.01825801276186305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003778414274171405</v>
+        <v>-0.01217012809214455</v>
       </c>
       <c r="C48">
-        <v>-0.01865414131221367</v>
+        <v>-0.03375209025540742</v>
       </c>
       <c r="D48">
-        <v>-0.05403926024981839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05397354197371487</v>
+      </c>
+      <c r="E48">
+        <v>0.07291601322782278</v>
+      </c>
+      <c r="F48">
+        <v>0.06199217395345959</v>
+      </c>
+      <c r="G48">
+        <v>0.01862598875782342</v>
+      </c>
+      <c r="H48">
+        <v>0.007745276121950029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002912664164463028</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002273803209316687</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001672303899142781</v>
+      </c>
+      <c r="E49">
+        <v>-0.001488184753144756</v>
+      </c>
+      <c r="F49">
+        <v>-0.00422608974340778</v>
+      </c>
+      <c r="G49">
+        <v>-0.006574339286770746</v>
+      </c>
+      <c r="H49">
+        <v>-0.005883772391323591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03156653327410642</v>
+        <v>-0.01503434771964616</v>
       </c>
       <c r="C50">
-        <v>-0.05957099549754472</v>
+        <v>-0.07620999793847537</v>
       </c>
       <c r="D50">
-        <v>-0.06498951888529476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03876417863340417</v>
+      </c>
+      <c r="E50">
+        <v>0.04004726676373029</v>
+      </c>
+      <c r="F50">
+        <v>0.008640519057217723</v>
+      </c>
+      <c r="G50">
+        <v>0.01090862403324022</v>
+      </c>
+      <c r="H50">
+        <v>0.01924742727163234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00572909442981364</v>
+        <v>0.004196703972121348</v>
       </c>
       <c r="C51">
-        <v>-0.006865694474797314</v>
+        <v>-0.0190790337719461</v>
       </c>
       <c r="D51">
-        <v>-0.05151829588651007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.02630877756288376</v>
+      </c>
+      <c r="E51">
+        <v>0.06454098628624522</v>
+      </c>
+      <c r="F51">
+        <v>0.03361715270231887</v>
+      </c>
+      <c r="G51">
+        <v>0.04202787140696838</v>
+      </c>
+      <c r="H51">
+        <v>0.0006959421321297166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1027651026227681</v>
+        <v>-0.05954217706805963</v>
       </c>
       <c r="C53">
-        <v>-0.1376470958091459</v>
+        <v>-0.1639621410978959</v>
       </c>
       <c r="D53">
-        <v>0.003960265363408415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01814860877314706</v>
+      </c>
+      <c r="E53">
+        <v>-0.02892499797232827</v>
+      </c>
+      <c r="F53">
+        <v>0.03707596304125393</v>
+      </c>
+      <c r="G53">
+        <v>0.00700662356057022</v>
+      </c>
+      <c r="H53">
+        <v>0.01220828516850347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004566788009080151</v>
+        <v>-0.01033062175760435</v>
       </c>
       <c r="C54">
-        <v>-0.02506849353679791</v>
+        <v>-0.04103538111093778</v>
       </c>
       <c r="D54">
-        <v>-0.08390039885778848</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06401200181908456</v>
+      </c>
+      <c r="E54">
+        <v>0.06345592968084192</v>
+      </c>
+      <c r="F54">
+        <v>0.01327698322635283</v>
+      </c>
+      <c r="G54">
+        <v>0.0224110139493457</v>
+      </c>
+      <c r="H54">
+        <v>0.02542688859984351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08512518005325245</v>
+        <v>-0.04187196007685046</v>
       </c>
       <c r="C55">
-        <v>-0.1133941122574555</v>
+        <v>-0.1283397293162347</v>
       </c>
       <c r="D55">
-        <v>-0.0005483051788581617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04736781869708005</v>
+      </c>
+      <c r="E55">
+        <v>-0.01444821611679221</v>
+      </c>
+      <c r="F55">
+        <v>0.0003519389224430639</v>
+      </c>
+      <c r="G55">
+        <v>0.0219952480335821</v>
+      </c>
+      <c r="H55">
+        <v>0.006119890941826602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1245763406545078</v>
+        <v>-0.0598196249288668</v>
       </c>
       <c r="C56">
-        <v>-0.163347052268124</v>
+        <v>-0.1940551988040087</v>
       </c>
       <c r="D56">
-        <v>-0.02138181296224512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04329092616367643</v>
+      </c>
+      <c r="E56">
+        <v>-0.0418492681624598</v>
+      </c>
+      <c r="F56">
+        <v>-0.002715123033751088</v>
+      </c>
+      <c r="G56">
+        <v>0.07176873914898599</v>
+      </c>
+      <c r="H56">
+        <v>0.02260090136479684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.006967479122978431</v>
+        <v>-0.009397799616630316</v>
       </c>
       <c r="C58">
-        <v>-0.02442940637047609</v>
+        <v>-0.07112733328443843</v>
       </c>
       <c r="D58">
-        <v>-0.1926859619189705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2291984978356695</v>
+      </c>
+      <c r="E58">
+        <v>0.1473027956289396</v>
+      </c>
+      <c r="F58">
+        <v>0.1472632098714757</v>
+      </c>
+      <c r="G58">
+        <v>0.1496742741009269</v>
+      </c>
+      <c r="H58">
+        <v>0.102963808515981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2049930972630445</v>
+        <v>-0.260758530083935</v>
       </c>
       <c r="C59">
-        <v>0.120981777668779</v>
+        <v>0.05522246593204547</v>
       </c>
       <c r="D59">
-        <v>-0.04499022164622728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0433914240030496</v>
+      </c>
+      <c r="E59">
+        <v>-0.006483348579523611</v>
+      </c>
+      <c r="F59">
+        <v>0.02215518760394748</v>
+      </c>
+      <c r="G59">
+        <v>0.03989011298231861</v>
+      </c>
+      <c r="H59">
+        <v>-0.02985935165294338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.175198197707171</v>
+        <v>-0.1523272502801726</v>
       </c>
       <c r="C60">
-        <v>-0.1116713789526268</v>
+        <v>-0.1673561848188788</v>
       </c>
       <c r="D60">
-        <v>-0.1228400709855343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01827198323464806</v>
+      </c>
+      <c r="E60">
+        <v>0.1028726771014527</v>
+      </c>
+      <c r="F60">
+        <v>-0.2022413360546612</v>
+      </c>
+      <c r="G60">
+        <v>-0.2308411226013138</v>
+      </c>
+      <c r="H60">
+        <v>-0.1733452302188286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01991200291614643</v>
+        <v>-0.01288825577894822</v>
       </c>
       <c r="C61">
-        <v>-0.06042603859257497</v>
+        <v>-0.08225743169997105</v>
       </c>
       <c r="D61">
-        <v>-0.07227573119401534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.039518873517414</v>
+      </c>
+      <c r="E61">
+        <v>0.07437934117163972</v>
+      </c>
+      <c r="F61">
+        <v>-0.00922198330284389</v>
+      </c>
+      <c r="G61">
+        <v>-0.0004400479381373288</v>
+      </c>
+      <c r="H61">
+        <v>-0.002762194093555724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01008381257243214</v>
+        <v>-0.01615693195223572</v>
       </c>
       <c r="C63">
-        <v>-0.02803257457902155</v>
+        <v>-0.04612988315077697</v>
       </c>
       <c r="D63">
-        <v>-0.07230574246609958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03373253613782429</v>
+      </c>
+      <c r="E63">
+        <v>0.09210468759957968</v>
+      </c>
+      <c r="F63">
+        <v>0.02246646202270996</v>
+      </c>
+      <c r="G63">
+        <v>0.002864885594833034</v>
+      </c>
+      <c r="H63">
+        <v>0.0008641710398379872</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04576720204509527</v>
+        <v>-0.01528929197571974</v>
       </c>
       <c r="C64">
-        <v>-0.09611124076222161</v>
+        <v>-0.1046325890763755</v>
       </c>
       <c r="D64">
-        <v>-0.01580326513458839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004376594150397933</v>
+      </c>
+      <c r="E64">
+        <v>0.03253502847051947</v>
+      </c>
+      <c r="F64">
+        <v>0.02407710918535484</v>
+      </c>
+      <c r="G64">
+        <v>-0.03121250549154674</v>
+      </c>
+      <c r="H64">
+        <v>0.03458457920669668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02616002777855582</v>
+        <v>-0.02673257569630642</v>
       </c>
       <c r="C65">
-        <v>-0.01727638457865638</v>
+        <v>-0.04522903866795838</v>
       </c>
       <c r="D65">
-        <v>-0.09098174759040574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08602051281131452</v>
+      </c>
+      <c r="E65">
+        <v>0.08696508442657579</v>
+      </c>
+      <c r="F65">
+        <v>-0.008276135782874854</v>
+      </c>
+      <c r="G65">
+        <v>-0.06374910262585419</v>
+      </c>
+      <c r="H65">
+        <v>0.006064696944540698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02020227226037059</v>
+        <v>-0.007942244200414349</v>
       </c>
       <c r="C66">
-        <v>-0.07601741723313829</v>
+        <v>-0.1111883205345274</v>
       </c>
       <c r="D66">
-        <v>-0.1200315327816366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0873306647332725</v>
+      </c>
+      <c r="E66">
+        <v>0.1032009866810304</v>
+      </c>
+      <c r="F66">
+        <v>-0.004914833754159541</v>
+      </c>
+      <c r="G66">
+        <v>0.02111059495981146</v>
+      </c>
+      <c r="H66">
+        <v>0.009346829730248194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01515416561704895</v>
+        <v>-0.01680639489007231</v>
       </c>
       <c r="C67">
-        <v>-0.02005291728807046</v>
+        <v>-0.03667210212990727</v>
       </c>
       <c r="D67">
-        <v>-0.04775228011084203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03794720339659989</v>
+      </c>
+      <c r="E67">
+        <v>0.05106890428428899</v>
+      </c>
+      <c r="F67">
+        <v>-0.01642004953748127</v>
+      </c>
+      <c r="G67">
+        <v>0.003793594208539403</v>
+      </c>
+      <c r="H67">
+        <v>0.03244495760813764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2140409528022417</v>
+        <v>-0.2788073357054444</v>
       </c>
       <c r="C68">
-        <v>0.1321284086404169</v>
+        <v>0.06730730959750844</v>
       </c>
       <c r="D68">
-        <v>-0.02438471886927492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03585172606796427</v>
+      </c>
+      <c r="E68">
+        <v>0.01417584438801993</v>
+      </c>
+      <c r="F68">
+        <v>0.02284683480813854</v>
+      </c>
+      <c r="G68">
+        <v>0.04161787760385265</v>
+      </c>
+      <c r="H68">
+        <v>-0.001051364271001592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04850765629410849</v>
+        <v>-0.0151606261764989</v>
       </c>
       <c r="C69">
-        <v>-0.1179567744891224</v>
+        <v>-0.1106685327917728</v>
       </c>
       <c r="D69">
-        <v>-0.0655033592477004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01591469856089799</v>
+      </c>
+      <c r="E69">
+        <v>0.01485596083841938</v>
+      </c>
+      <c r="F69">
+        <v>-0.01020521334230156</v>
+      </c>
+      <c r="G69">
+        <v>-0.008217453787199335</v>
+      </c>
+      <c r="H69">
+        <v>-0.004121389005524769</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2343246227173994</v>
+        <v>-0.2722046244059788</v>
       </c>
       <c r="C71">
-        <v>0.1545484803492511</v>
+        <v>0.08206921733186782</v>
       </c>
       <c r="D71">
-        <v>-0.01621053684364945</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01250557411934116</v>
+      </c>
+      <c r="E71">
+        <v>-0.007100930537522637</v>
+      </c>
+      <c r="F71">
+        <v>0.01164613387993261</v>
+      </c>
+      <c r="G71">
+        <v>0.04289240793007915</v>
+      </c>
+      <c r="H71">
+        <v>0.03021748188832499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09848706063376685</v>
+        <v>-0.06396929228485773</v>
       </c>
       <c r="C72">
-        <v>-0.0793971869430017</v>
+        <v>-0.1243874902580929</v>
       </c>
       <c r="D72">
-        <v>-0.09326252010752228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0329225401353339</v>
+      </c>
+      <c r="E72">
+        <v>0.08400075215693985</v>
+      </c>
+      <c r="F72">
+        <v>-0.01889588976088286</v>
+      </c>
+      <c r="G72">
+        <v>-0.03639306619064809</v>
+      </c>
+      <c r="H72">
+        <v>-0.008792072657085004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1737261223274293</v>
+        <v>-0.1586012156104182</v>
       </c>
       <c r="C73">
-        <v>-0.08644902212222624</v>
+        <v>-0.1687644489165236</v>
       </c>
       <c r="D73">
-        <v>-0.180522781864752</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.008048957253690378</v>
+      </c>
+      <c r="E73">
+        <v>0.246895202496758</v>
+      </c>
+      <c r="F73">
+        <v>-0.3176164030441114</v>
+      </c>
+      <c r="G73">
+        <v>-0.3966838178500552</v>
+      </c>
+      <c r="H73">
+        <v>-0.1973621167326601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09830656909569267</v>
+        <v>-0.05186809892302509</v>
       </c>
       <c r="C74">
-        <v>-0.1216875955779107</v>
+        <v>-0.1399579577316176</v>
       </c>
       <c r="D74">
-        <v>0.05215104544578169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04480878941004507</v>
+      </c>
+      <c r="E74">
+        <v>-0.04059568087270372</v>
+      </c>
+      <c r="F74">
+        <v>0.03481390666960465</v>
+      </c>
+      <c r="G74">
+        <v>0.002459871909912768</v>
+      </c>
+      <c r="H74">
+        <v>0.007521299793538523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2090237018753993</v>
+        <v>-0.09746676576607599</v>
       </c>
       <c r="C75">
-        <v>-0.2183712006368628</v>
+        <v>-0.2612633055917314</v>
       </c>
       <c r="D75">
-        <v>0.03362400918114213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1002232756099985</v>
+      </c>
+      <c r="E75">
+        <v>-0.1345280734767377</v>
+      </c>
+      <c r="F75">
+        <v>-0.05779183784576854</v>
+      </c>
+      <c r="G75">
+        <v>0.1048095645457915</v>
+      </c>
+      <c r="H75">
+        <v>0.1140693597591992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1272421442999669</v>
+        <v>-0.06028208521095354</v>
       </c>
       <c r="C76">
-        <v>-0.147164584955744</v>
+        <v>-0.1774624025646033</v>
       </c>
       <c r="D76">
-        <v>-0.01080806676016318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04293098172068673</v>
+      </c>
+      <c r="E76">
+        <v>-0.04515443626185723</v>
+      </c>
+      <c r="F76">
+        <v>-0.007274428514970429</v>
+      </c>
+      <c r="G76">
+        <v>0.05152171956206563</v>
+      </c>
+      <c r="H76">
+        <v>0.03124919132518946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004136532127983049</v>
+        <v>0.004263896104120145</v>
       </c>
       <c r="C77">
-        <v>-0.08152034732084221</v>
+        <v>-0.1260141308702584</v>
       </c>
       <c r="D77">
-        <v>-0.221599728056445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.6749394943208348</v>
+      </c>
+      <c r="E77">
+        <v>-0.6486279255924746</v>
+      </c>
+      <c r="F77">
+        <v>-0.134030863883589</v>
+      </c>
+      <c r="G77">
+        <v>-0.1800014020959383</v>
+      </c>
+      <c r="H77">
+        <v>-0.02558602064840533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03118023386028267</v>
+        <v>-0.02253471848797584</v>
       </c>
       <c r="C78">
-        <v>-0.08025432621346686</v>
+        <v>-0.09724602361677968</v>
       </c>
       <c r="D78">
-        <v>-0.137968473950263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06058062273877749</v>
+      </c>
+      <c r="E78">
+        <v>0.1030734763172405</v>
+      </c>
+      <c r="F78">
+        <v>0.04219216560867321</v>
+      </c>
+      <c r="G78">
+        <v>0.1088283201193087</v>
+      </c>
+      <c r="H78">
+        <v>-0.02563334408133443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1081063104215621</v>
+        <v>-0.05159167333462206</v>
       </c>
       <c r="C79">
-        <v>-0.2165219112429353</v>
+        <v>-0.2177547547239445</v>
       </c>
       <c r="D79">
-        <v>0.6389425185967873</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1401744849459399</v>
+      </c>
+      <c r="E79">
+        <v>-0.129404420285563</v>
+      </c>
+      <c r="F79">
+        <v>0.7754184379931739</v>
+      </c>
+      <c r="G79">
+        <v>-0.440384146267011</v>
+      </c>
+      <c r="H79">
+        <v>-0.0897481762168351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006244270314180495</v>
+        <v>-0.008663274288184034</v>
       </c>
       <c r="C80">
-        <v>-0.0448321335601895</v>
+        <v>-0.04575522587069435</v>
       </c>
       <c r="D80">
-        <v>-0.02861189503605494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.005064261527044409</v>
+      </c>
+      <c r="E80">
+        <v>0.0646134027650076</v>
+      </c>
+      <c r="F80">
+        <v>-0.01277880603026434</v>
+      </c>
+      <c r="G80">
+        <v>0.007951075399115484</v>
+      </c>
+      <c r="H80">
+        <v>-0.08086334900145695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0968414159884442</v>
+        <v>-0.03305712992445006</v>
       </c>
       <c r="C81">
-        <v>-0.1417078931122331</v>
+        <v>-0.1581268364443504</v>
       </c>
       <c r="D81">
-        <v>0.07190189361768315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06253223809973432</v>
+      </c>
+      <c r="E81">
+        <v>-0.06758902782630122</v>
+      </c>
+      <c r="F81">
+        <v>0.05157310051802983</v>
+      </c>
+      <c r="G81">
+        <v>0.07228307088422202</v>
+      </c>
+      <c r="H81">
+        <v>0.00890237862766257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2016829733465771</v>
+        <v>-0.07799733185962447</v>
       </c>
       <c r="C82">
-        <v>-0.3069085124643897</v>
+        <v>-0.2917418994773388</v>
       </c>
       <c r="D82">
-        <v>0.05934009686863135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1848866396082324</v>
+      </c>
+      <c r="E82">
+        <v>-0.1476480435255205</v>
+      </c>
+      <c r="F82">
+        <v>-0.1050759351651775</v>
+      </c>
+      <c r="G82">
+        <v>0.1742438515403823</v>
+      </c>
+      <c r="H82">
+        <v>0.04673556654595051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01315548889916691</v>
+        <v>0.0068000757781674</v>
       </c>
       <c r="C83">
-        <v>-0.0499056621842816</v>
+        <v>-0.01689371954492152</v>
       </c>
       <c r="D83">
-        <v>0.004493679693222387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02441368457964847</v>
+      </c>
+      <c r="E83">
+        <v>-0.09950881328697299</v>
+      </c>
+      <c r="F83">
+        <v>0.09606309783612023</v>
+      </c>
+      <c r="G83">
+        <v>0.3771490554706042</v>
+      </c>
+      <c r="H83">
+        <v>-0.8577174010569393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.00120468372106492</v>
+        <v>0.004475639259992024</v>
       </c>
       <c r="C84">
-        <v>-0.004679765147235158</v>
+        <v>-0.01654155777036911</v>
       </c>
       <c r="D84">
-        <v>-0.009905623795475558</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03618931760379857</v>
+      </c>
+      <c r="E84">
+        <v>0.03638347032104904</v>
+      </c>
+      <c r="F84">
+        <v>0.03372841881093053</v>
+      </c>
+      <c r="G84">
+        <v>0.04928426199224879</v>
+      </c>
+      <c r="H84">
+        <v>0.06542648959454074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1265512747230641</v>
+        <v>-0.05517390097449513</v>
       </c>
       <c r="C85">
-        <v>-0.1561511885984502</v>
+        <v>-0.1788864223907632</v>
       </c>
       <c r="D85">
-        <v>0.08792876957446633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1154563445056887</v>
+      </c>
+      <c r="E85">
+        <v>-0.04556417876544331</v>
+      </c>
+      <c r="F85">
+        <v>0.04729966949436703</v>
+      </c>
+      <c r="G85">
+        <v>0.01400299750692394</v>
+      </c>
+      <c r="H85">
+        <v>0.02867353812103816</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02351446147136441</v>
+        <v>-0.01608858084635931</v>
       </c>
       <c r="C86">
-        <v>-0.01034181448340244</v>
+        <v>-0.0405030591961696</v>
       </c>
       <c r="D86">
-        <v>-0.07884279904417546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09028611664618551</v>
+      </c>
+      <c r="E86">
+        <v>0.02355475001092696</v>
+      </c>
+      <c r="F86">
+        <v>0.04447789711277858</v>
+      </c>
+      <c r="G86">
+        <v>0.03996597476994469</v>
+      </c>
+      <c r="H86">
+        <v>0.04585200652039052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02190112838275629</v>
+        <v>-0.01114634128623858</v>
       </c>
       <c r="C87">
-        <v>-0.0404544854730635</v>
+        <v>-0.06861710101983497</v>
       </c>
       <c r="D87">
-        <v>-0.1178257211283364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1090535934458391</v>
+      </c>
+      <c r="E87">
+        <v>0.08179677091712795</v>
+      </c>
+      <c r="F87">
+        <v>0.04554669252046026</v>
+      </c>
+      <c r="G87">
+        <v>0.07712703972411761</v>
+      </c>
+      <c r="H87">
+        <v>0.01407330025673741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04569093997049681</v>
+        <v>-0.03417493963558584</v>
       </c>
       <c r="C88">
-        <v>-0.04872367984490842</v>
+        <v>-0.071205424265208</v>
       </c>
       <c r="D88">
-        <v>-0.01206084491780867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01697447714869141</v>
+      </c>
+      <c r="E88">
+        <v>0.03999516090122313</v>
+      </c>
+      <c r="F88">
+        <v>0.02244669504882104</v>
+      </c>
+      <c r="G88">
+        <v>-0.01974269118386966</v>
+      </c>
+      <c r="H88">
+        <v>0.00213640330036364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3490519204032778</v>
+        <v>-0.3979922786131904</v>
       </c>
       <c r="C89">
-        <v>0.2912667707614445</v>
+        <v>0.1625358516514834</v>
       </c>
       <c r="D89">
-        <v>-0.01791987690317736</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05127973580572107</v>
+      </c>
+      <c r="E89">
+        <v>-0.006458693222374198</v>
+      </c>
+      <c r="F89">
+        <v>0.07457776514857654</v>
+      </c>
+      <c r="G89">
+        <v>0.08221210892672516</v>
+      </c>
+      <c r="H89">
+        <v>-0.06386404130505877</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2792101585020805</v>
+        <v>-0.3233787882669065</v>
       </c>
       <c r="C90">
-        <v>0.2097195859007426</v>
+        <v>0.1033051635684441</v>
       </c>
       <c r="D90">
-        <v>-0.05988824869077923</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03349891169749967</v>
+      </c>
+      <c r="E90">
+        <v>0.008069961553674444</v>
+      </c>
+      <c r="F90">
+        <v>-0.007848388493169182</v>
+      </c>
+      <c r="G90">
+        <v>0.05422239360595223</v>
+      </c>
+      <c r="H90">
+        <v>0.005299994706632311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.133177994333686</v>
+        <v>-0.06418378576347361</v>
       </c>
       <c r="C91">
-        <v>-0.198795590285384</v>
+        <v>-0.2011523601116178</v>
       </c>
       <c r="D91">
-        <v>0.09754619854270581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0826201936922107</v>
+      </c>
+      <c r="E91">
+        <v>-0.1050011922337031</v>
+      </c>
+      <c r="F91">
+        <v>0.06041714505049652</v>
+      </c>
+      <c r="G91">
+        <v>0.02467853357741081</v>
+      </c>
+      <c r="H91">
+        <v>-0.004543832346149624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2661462976049057</v>
+        <v>-0.3366928565071366</v>
       </c>
       <c r="C92">
-        <v>0.2392814478033977</v>
+        <v>0.1442645736385679</v>
       </c>
       <c r="D92">
-        <v>0.03094929818864152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04411447816911924</v>
+      </c>
+      <c r="E92">
+        <v>-0.04679334760462416</v>
+      </c>
+      <c r="F92">
+        <v>0.04959562583470615</v>
+      </c>
+      <c r="G92">
+        <v>-0.005169317209649299</v>
+      </c>
+      <c r="H92">
+        <v>0.1228496933547631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2978220614045146</v>
+        <v>-0.3297825000500394</v>
       </c>
       <c r="C93">
-        <v>0.2171656187739966</v>
+        <v>0.117721245796279</v>
       </c>
       <c r="D93">
-        <v>0.02853798818352526</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02687641164385519</v>
+      </c>
+      <c r="E93">
+        <v>-0.006028311345199933</v>
+      </c>
+      <c r="F93">
+        <v>0.009557947286100651</v>
+      </c>
+      <c r="G93">
+        <v>-0.01858073534263711</v>
+      </c>
+      <c r="H93">
+        <v>0.03262288080507659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2433361976107699</v>
+        <v>-0.1189665205252611</v>
       </c>
       <c r="C94">
-        <v>-0.2879473035271641</v>
+        <v>-0.3182855967739378</v>
       </c>
       <c r="D94">
-        <v>0.1272968127391623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2934205000965239</v>
+      </c>
+      <c r="E94">
+        <v>-0.2062422430802644</v>
+      </c>
+      <c r="F94">
+        <v>-0.1593865617128272</v>
+      </c>
+      <c r="G94">
+        <v>0.2574277484639164</v>
+      </c>
+      <c r="H94">
+        <v>0.122752573583783</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0008074090434566105</v>
+        <v>-0.01414432463551895</v>
       </c>
       <c r="C95">
-        <v>-0.0519979883450063</v>
+        <v>-0.0760227548824962</v>
       </c>
       <c r="D95">
-        <v>-0.1008305857445675</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1507487377648432</v>
+      </c>
+      <c r="E95">
+        <v>-0.04524296138736879</v>
+      </c>
+      <c r="F95">
+        <v>-0.008216341168559269</v>
+      </c>
+      <c r="G95">
+        <v>-0.0332631536106243</v>
+      </c>
+      <c r="H95">
+        <v>0.0526780086796084</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002356413168346351</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000955414348716566</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0005025981586904607</v>
+      </c>
+      <c r="E97">
+        <v>0.00328014811937793</v>
+      </c>
+      <c r="F97">
+        <v>-2.376863681412603e-08</v>
+      </c>
+      <c r="G97">
+        <v>0.0001859991793654464</v>
+      </c>
+      <c r="H97">
+        <v>0.005461816501338351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.145257807702997</v>
+        <v>-0.1329325570326095</v>
       </c>
       <c r="C98">
-        <v>-0.1046731157500055</v>
+        <v>-0.1652506092206499</v>
       </c>
       <c r="D98">
-        <v>-0.1286603161728915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01118703918825441</v>
+      </c>
+      <c r="E98">
+        <v>0.152423076057268</v>
+      </c>
+      <c r="F98">
+        <v>-0.2624029863792531</v>
+      </c>
+      <c r="G98">
+        <v>-0.2959475965309396</v>
+      </c>
+      <c r="H98">
+        <v>-0.170252767217531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003516428212117519</v>
+        <v>-0.001191457453313039</v>
       </c>
       <c r="C101">
-        <v>-0.02265687127610139</v>
+        <v>-0.03948355560464778</v>
       </c>
       <c r="D101">
-        <v>-0.06244548337884121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06647487960460485</v>
+      </c>
+      <c r="E101">
+        <v>0.1204510286738063</v>
+      </c>
+      <c r="F101">
+        <v>0.03789817406455263</v>
+      </c>
+      <c r="G101">
+        <v>0.01443845623660024</v>
+      </c>
+      <c r="H101">
+        <v>-0.04469173780427077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08171680449182381</v>
+        <v>-0.01846235587109552</v>
       </c>
       <c r="C102">
-        <v>-0.1632901815963851</v>
+        <v>-0.1337525633461372</v>
       </c>
       <c r="D102">
-        <v>-0.001825458843550082</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.07639685936081374</v>
+      </c>
+      <c r="E102">
+        <v>-0.07535400236271296</v>
+      </c>
+      <c r="F102">
+        <v>-0.07086958236973187</v>
+      </c>
+      <c r="G102">
+        <v>0.03849363189784911</v>
+      </c>
+      <c r="H102">
+        <v>-0.01273727660393314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
